--- a/examples/upper Canada Land Petitions/counters.xlsx
+++ b/examples/upper Canada Land Petitions/counters.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C636"/>
+  <dimension ref="A1:C633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,51 +475,51 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>person_id_nbr</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Meta Compliance (field size)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Error: Mandatory field is BLANK or NULL. A value is required.</t>
+          <t>Error: Value '1838 (1842)' is longer than size '4'</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>person_id_nbr</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Meta Compliance (field size)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Error: Value '' is not an int. An int was expected</t>
+          <t>Error: Value '18,091,815' is longer than size '4'</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>person_id_nbr</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Uniqueness</t>
+          <t>Meta Compliance (field size)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Error: Value '' is not UNIQUE. A unique value was expected</t>
+          <t>Error: Value '1796-1798' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Error: Value '1838 (1842)' is longer than size '4'</t>
+          <t>Error: Value '1810-1832' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -553,7 +553,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Error: Value '18,091,815' is longer than size '4'</t>
+          <t>Error: Value '1820-1832' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Error: Value '1796-1798' is longer than size '4'</t>
+          <t>Error: Value '1829-1845' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Error: Value '1810-1832' is longer than size '4'</t>
+          <t>Error: Value '1829-1845' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Error: Value '1820-1832' is longer than size '4'</t>
+          <t>Error: Value '1839-1847' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Error: Value '1829-1845' is longer than size '4'</t>
+          <t>Error: Value '1832-1847' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Error: Value '1829-1845' is longer than size '4'</t>
+          <t>Error: Value '1790-1791' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -655,7 +655,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Error: Value '1839-1847' is longer than size '4'</t>
+          <t>Error: Value '1790-1791' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -672,7 +672,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Error: Value '1832-1847' is longer than size '4'</t>
+          <t>Error: Value '1789, 1792, 1793' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Error: Value '1790-1791' is longer than size '4'</t>
+          <t>Error: Value '1791, 1793' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Error: Value '1789, 1792, 1793' is longer than size '4'</t>
+          <t>Error: Value '1791-1792' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Error: Value '1791-1792' is longer than size '4'</t>
+          <t>Error: Value '1792, 1789' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Error: Value '1790-1791' is longer than size '4'</t>
+          <t>Error: Value '1789, 1794' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -808,7 +808,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Error: Value '1791, 1793' is longer than size '4'</t>
+          <t>Error: Value '1787, 1788, 1790' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Error: Value '1792, 1789' is longer than size '4'</t>
+          <t>Error: Value '1847-1848' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Error: Value '1789, 1794' is longer than size '4'</t>
+          <t>Error: Value '1844-1845' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Error: Value '1787, 1788, 1790' is longer than size '4'</t>
+          <t>Error: Value '1844-1845' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Error: Value '1847-1848' is longer than size '4'</t>
+          <t>Error: Value '1844-1845' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Error: Value '1844-1845' is longer than size '4'</t>
+          <t>Error: Value '1858, 1859' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -944,7 +944,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Error: Value '1844-1845' is longer than size '4'</t>
+          <t>Error: Value '1810, 1820, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Error: Value '1844-1845' is longer than size '4'</t>
+          <t>Error: Value '1829-1841, 1843-1844' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -978,7 +978,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Error: Value '1858, 1859' is longer than size '4'</t>
+          <t>Error: Value '1790-1791' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -995,7 +995,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Error: Value '1810, 1820, 1821' is longer than size '4'</t>
+          <t>Error: Value '1791-1793' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Error: Value '1829-1841, 1843-1844' is longer than size '4'</t>
+          <t>Error: Value '1789-1790' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Error: Value '1790-1791' is longer than size '4'</t>
+          <t>Error: Value '1787-88' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Error: Value '1791-1793' is longer than size '4'</t>
+          <t>Error: Value '1790, 1792' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Error: Value '1789-1790' is longer than size '4'</t>
+          <t>Error: Value '1789, 1790' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Error: Value '1787-88' is longer than size '4'</t>
+          <t>Error: Value '17,901,792' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Error: Value '1790, 1792' is longer than size '4'</t>
+          <t>Error: Value '18253' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Error: Value '1789, 1790' is longer than size '4'</t>
+          <t>Error: Value '1839, 1843' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Error: Value '17,901,792' is longer than size '4'</t>
+          <t>Error: Value '1791-1792' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Error: Value '18253' is longer than size '4'</t>
+          <t>Error: Value '1789-1791' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Error: Value '1839, 1843' is longer than size '4'</t>
+          <t>Error: Value '1790-1792' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Error: Value '1791-1792' is longer than size '4'</t>
+          <t>Error: Value '1788-89' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Error: Value '1789-1791' is longer than size '4'</t>
+          <t>Error: Value '1791-1792' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Error: Value '1790-1792' is longer than size '4'</t>
+          <t>Error: Value '1788, 1794' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Error: Value '1788-89' is longer than size '4'</t>
+          <t>Error: Value '1796-1798' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Error: Value '1791-1792' is longer than size '4'</t>
+          <t>Error: Value '1790-1791' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Error: Value '1788, 1794' is longer than size '4'</t>
+          <t>Error: Value '1791-1793' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Error: Value '1796-1798' is longer than size '4'</t>
+          <t>Error: Value '1791-1793' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Error: Value '1791-1793' is longer than size '4'</t>
+          <t>Error: Value '1785-1791' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Error: Value '1791-1793' is longer than size '4'</t>
+          <t>Error: Value '1788-1789' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Error: Value '1790-1791' is longer than size '4'</t>
+          <t>Error: Value '1794-1795' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Error: Value '1785-1791' is longer than size '4'</t>
+          <t>Error: Value '1812, 1816' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Error: Value '1788-1789' is longer than size '4'</t>
+          <t>Error: Value '1825-1842' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Error: Value '1794-1795' is longer than size '4'</t>
+          <t>Error: Value '1825-1842' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Error: Value '1812, 1816' is longer than size '4'</t>
+          <t>Error: Value '18347' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Error: Value '1825-1842' is longer than size '4'</t>
+          <t>Error: Value '18587' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Error: Value '1825-1842' is longer than size '4'</t>
+          <t>Error: Value '1815-1818' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Error: Value '18347' is longer than size '4'</t>
+          <t>Error: Value '1815-1818' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Error: Value '18587' is longer than size '4'</t>
+          <t>Error: Value '1792-1796' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1505,7 +1505,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Error: Value '1815-1818' is longer than size '4'</t>
+          <t>Error: Value '17971797' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Error: Value '1815-1818' is longer than size '4'</t>
+          <t>Error: Value '1850, 1852' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Error: Value '1792-1796' is longer than size '4'</t>
+          <t>Error: Value '1850, 1852' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Error: Value '17971797' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Error: Value '1850, 1852' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Error: Value '1850, 1852' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1826, 1828' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1826, 1828' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Error: Value '1826, 1828' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1964,7 +1964,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Error: Value '1826, 1828' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1823, 1829' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1823, 1829' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1825, 1829' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Error: Value '1823, 1829' is longer than size '4'</t>
+          <t>Error: Value '1825, 1829' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Error: Value '1825, 1829' is longer than size '4'</t>
+          <t>Error: Value '1823, 1829' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Error: Value '1825, 1829' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Error: Value '1823, 1829' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Error: Value '1823, 1829' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -2389,7 +2389,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -2440,7 +2440,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1826, 1830' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -2593,7 +2593,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1826, 1830' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -2610,7 +2610,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1825, 1826, 1830' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -2627,7 +2627,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Error: Value '1826, 1830' is longer than size '4'</t>
+          <t>Error: Value '1825, 1826, 1830' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Error: Value '1826, 1830' is longer than size '4'</t>
+          <t>Error: Value '1825, 1826, 1830' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Error: Value '1825, 1826, 1830' is longer than size '4'</t>
+          <t>Error: Value '1825, 1830' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Error: Value '1825, 1826, 1830' is longer than size '4'</t>
+          <t>Error: Value '1825, 1830' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Error: Value '1825, 1826, 1830' is longer than size '4'</t>
+          <t>Error: Value '1820, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -2712,7 +2712,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Error: Value '1825, 1830' is longer than size '4'</t>
+          <t>Error: Value '1820, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Error: Value '1825, 1830' is longer than size '4'</t>
+          <t>Error: Value '1823, 1829' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1821' is longer than size '4'</t>
+          <t>Error: Value '1823, 1839' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -2763,7 +2763,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Error: Value '1823, 1829' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Error: Value '1823, 1839' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -2882,7 +2882,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1821, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1821, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -2933,7 +2933,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1823, 1829' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -2950,7 +2950,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Error: Value '1821, 1822' is longer than size '4'</t>
+          <t>Error: Value '1823, 1829' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Error: Value '1821, 1822' is longer than size '4'</t>
+          <t>Error: Value '1820, 1822, 1827' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Error: Value '1823, 1829' is longer than size '4'</t>
+          <t>Error: Value '1820, 1822, 1827' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Error: Value '1823, 1829' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1822, 1827' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1822, 1827' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -3052,7 +3052,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1824, 1826' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1824, 1826' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Error: Value '1824, 1826' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Error: Value '1824, 1826' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -3222,7 +3222,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1820, 1822, 1830' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -3358,7 +3358,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1820, 1822, 1830' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -3392,7 +3392,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1822, 1830' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1822, 1830' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3426,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -3494,7 +3494,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1826, 1828' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -3834,7 +3834,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1826, 1828' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -3868,7 +3868,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Error: Value '1826, 1828' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Error: Value '1826, 1828' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -3902,7 +3902,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -3953,7 +3953,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4004,7 +4004,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4021,7 +4021,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821, 1823' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4038,7 +4038,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821, 1823' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4055,7 +4055,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4072,7 +4072,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821, 1823' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821, 1823' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4106,7 +4106,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4123,7 +4123,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1821, 1822, 1826' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4140,7 +4140,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1821, 1822, 1826' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4157,7 +4157,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1821, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Error: Value '1821, 1822, 1826' is longer than size '4'</t>
+          <t>Error: Value '1821, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Error: Value '1821, 1822, 1826' is longer than size '4'</t>
+          <t>Error: Value '1820, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4208,7 +4208,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Error: Value '1821, 1822' is longer than size '4'</t>
+          <t>Error: Value '1820, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Error: Value '1821, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4242,7 +4242,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4259,7 +4259,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4327,7 +4327,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1820, 1821, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4344,7 +4344,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1820, 1821, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1823, 1829' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4378,7 +4378,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1821, 1822' is longer than size '4'</t>
+          <t>Error: Value '1823, 1829' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4395,7 +4395,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1821, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4412,7 +4412,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Error: Value '1823, 1829' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Error: Value '1823, 1829' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4446,7 +4446,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4463,7 +4463,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1820, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4480,7 +4480,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1820, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1821, 1825' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4514,7 +4514,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1821' is longer than size '4'</t>
+          <t>Error: Value '1821, 1825' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4531,7 +4531,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1829' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4548,7 +4548,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Error: Value '1821, 1825' is longer than size '4'</t>
+          <t>Error: Value '1819, 1829' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4565,7 +4565,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Error: Value '1821, 1825' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4582,7 +4582,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1829' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4599,7 +4599,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1829' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4616,7 +4616,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1826, 1828' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4650,7 +4650,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1826, 1828' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4684,7 +4684,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Error: Value '1826, 1828' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4701,7 +4701,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Error: Value '1826, 1828' is longer than size '4'</t>
+          <t>Error: Value '1820, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4718,7 +4718,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1810, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4752,7 +4752,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4769,7 +4769,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Error: Value '1810, 1822' is longer than size '4'</t>
+          <t>Error: Value '1821, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4786,7 +4786,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1821, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4803,7 +4803,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1821, 1823' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4820,7 +4820,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Error: Value '1821, 1822' is longer than size '4'</t>
+          <t>Error: Value '1821, 1823' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4837,7 +4837,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Error: Value '1821, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4854,7 +4854,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Error: Value '1821, 1823' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Error: Value '1821, 1823' is longer than size '4'</t>
+          <t>Error: Value '1821, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4888,7 +4888,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1821, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4905,7 +4905,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4922,7 +4922,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Error: Value '1821, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Error: Value '1821, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -5007,7 +5007,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -5024,7 +5024,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -5058,7 +5058,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -5075,7 +5075,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -5109,7 +5109,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1826, 1828' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -5126,7 +5126,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1826, 1828' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Error: Value '1826, 1828' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -5177,7 +5177,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Error: Value '1826, 1828' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -5211,7 +5211,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -5228,7 +5228,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -5245,7 +5245,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -5279,7 +5279,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1826, 1830' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -5296,7 +5296,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1826, 1830' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -5313,7 +5313,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1821, 1823' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -5330,7 +5330,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Error: Value '1826, 1830' is longer than size '4'</t>
+          <t>Error: Value '1821, 1823' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -5347,7 +5347,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Error: Value '1826, 1830' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -5364,7 +5364,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Error: Value '1821, 1823' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -5381,7 +5381,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Error: Value '1821, 1823' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -5398,7 +5398,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -5415,7 +5415,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -5568,7 +5568,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1820, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1820, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -5619,7 +5619,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -5636,7 +5636,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -5653,7 +5653,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -5687,7 +5687,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -5704,7 +5704,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -5806,7 +5806,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1823, 1829' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -5823,7 +5823,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1823, 1829' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -5857,7 +5857,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Error: Value '1823, 1829' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -5891,7 +5891,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1823, 1829' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -5908,7 +5908,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1823, 1829' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -5942,7 +5942,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Error: Value '1823, 1829' is longer than size '4'</t>
+          <t>Error: Value '1824, 1825' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -5959,7 +5959,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Error: Value '1823, 1829' is longer than size '4'</t>
+          <t>Error: Value '1824, 1825' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -5976,7 +5976,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Error: Value '1823, 1829' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -5993,7 +5993,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Error: Value '1824, 1825' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6010,7 +6010,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Error: Value '1824, 1825' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6027,7 +6027,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6044,7 +6044,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1818, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6061,7 +6061,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1818, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6095,7 +6095,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Error: Value '1818, 1820' is longer than size '4'</t>
+          <t>Error: Value '1825, 1828' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6112,7 +6112,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Error: Value '1818, 1820' is longer than size '4'</t>
+          <t>Error: Value '1825, 1826' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6146,7 +6146,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Error: Value '1825, 1828' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Error: Value '1825, 1826' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6197,7 +6197,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1821, 1828' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6214,7 +6214,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1821, 1828' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6231,7 +6231,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1824, 1829' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6248,7 +6248,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Error: Value '1821, 1828' is longer than size '4'</t>
+          <t>Error: Value '1824, 1829' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Error: Value '1821, 1828' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6282,7 +6282,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Error: Value '1824, 1829' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6299,7 +6299,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Error: Value '1824, 1829' is longer than size '4'</t>
+          <t>Error: Value '1821, 1828' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6316,7 +6316,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1821, 1828' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6333,7 +6333,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6350,7 +6350,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Error: Value '1821, 1828' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6367,7 +6367,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Error: Value '1821, 1828' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6384,7 +6384,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6401,7 +6401,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1822, 1828' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6418,7 +6418,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1822, 1828' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6452,7 +6452,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Error: Value '1822, 1828' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6469,7 +6469,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Error: Value '1822, 1828' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6571,7 +6571,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1821, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6588,7 +6588,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1821, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6605,7 +6605,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6622,7 +6622,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Error: Value '1821, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6639,7 +6639,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>Error: Value '1821, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6656,7 +6656,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6673,7 +6673,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6707,7 +6707,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6724,7 +6724,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6741,7 +6741,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1826, 1828' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6758,7 +6758,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1826, 1828' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6775,7 +6775,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1821, 1822, 1825' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6792,7 +6792,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>Error: Value '1826, 1828' is longer than size '4'</t>
+          <t>Error: Value '1821, 1822, 1825' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6809,7 +6809,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>Error: Value '1826, 1828' is longer than size '4'</t>
+          <t>Error: Value '1821, 1822, 1825' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6826,7 +6826,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>Error: Value '1821, 1822, 1825' is longer than size '4'</t>
+          <t>Error: Value '1821, 1828' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6843,7 +6843,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>Error: Value '1821, 1822, 1825' is longer than size '4'</t>
+          <t>Error: Value '1821, 1828' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6860,7 +6860,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>Error: Value '1821, 1822, 1825' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6877,7 +6877,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>Error: Value '1821, 1828' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6894,7 +6894,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>Error: Value '1821, 1828' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6928,7 +6928,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1824, 1825' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6945,7 +6945,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1824, 1825' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6979,7 +6979,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>Error: Value '1824, 1825' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -6996,7 +6996,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>Error: Value '1824, 1825' is longer than size '4'</t>
+          <t>Error: Value '1820, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1820, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7030,7 +7030,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7047,7 +7047,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7064,7 +7064,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7081,7 +7081,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7098,7 +7098,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7115,7 +7115,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7132,7 +7132,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7149,7 +7149,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1821, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7166,7 +7166,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1821, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7183,7 +7183,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7200,7 +7200,7 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>Error: Value '1821, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7217,7 +7217,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>Error: Value '1821, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7234,7 +7234,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7251,7 +7251,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1824, 1829' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7268,7 +7268,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1824, 1829' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7285,7 +7285,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1822, 1828' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7302,7 +7302,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>Error: Value '1824, 1829' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7319,7 +7319,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>Error: Value '1824, 1829' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7336,7 +7336,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>Error: Value '1822, 1828' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7353,7 +7353,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7387,7 +7387,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7421,7 +7421,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7438,7 +7438,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1820, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7455,7 +7455,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1820, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7472,7 +7472,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1821, 1828' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7489,7 +7489,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1822' is longer than size '4'</t>
+          <t>Error: Value '1821, 1828' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7506,7 +7506,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7523,7 +7523,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Error: Value '1821, 1828' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7540,7 +7540,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>Error: Value '1821, 1828' is longer than size '4'</t>
+          <t>Error: Value '1821, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7557,7 +7557,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1821, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7591,7 +7591,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>Error: Value '1821, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7608,7 +7608,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Error: Value '1821, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7625,7 +7625,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7642,7 +7642,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7693,7 +7693,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1820, 1822, 1832' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7710,7 +7710,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1820, 1822, 1832' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7727,7 +7727,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7744,7 +7744,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1822, 1832' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7761,7 +7761,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1822, 1832' is longer than size '4'</t>
+          <t>Error: Value '1820, 1825' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7778,7 +7778,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1820, 1825' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7795,7 +7795,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7812,7 +7812,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1825' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7829,7 +7829,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1825' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7846,7 +7846,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7863,7 +7863,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1822, 1825' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7914,7 +7914,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1822, 1825' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7931,7 +7931,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1822, 1825' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7948,7 +7948,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Error: Value '1822, 1825' is longer than size '4'</t>
+          <t>Error: Value '1822, 1828' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7965,7 +7965,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Error: Value '1822, 1825' is longer than size '4'</t>
+          <t>Error: Value '1822, 1828' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7982,7 +7982,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Error: Value '1822, 1825' is longer than size '4'</t>
+          <t>Error: Value '1821, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -7999,7 +7999,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>Error: Value '1822, 1828' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8016,7 +8016,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>Error: Value '1822, 1828' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8033,7 +8033,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>Error: Value '1821, 1822' is longer than size '4'</t>
+          <t>Error: Value '1826, 1828' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8050,7 +8050,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1826, 1828' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8084,7 +8084,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Error: Value '1826, 1828' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8101,7 +8101,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Error: Value '1826, 1828' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8135,7 +8135,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8152,7 +8152,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8169,7 +8169,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8186,7 +8186,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821, 1822' is longer than size '4'</t>
+          <t>Error: Value '1821, 1825' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8203,7 +8203,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821, 1822' is longer than size '4'</t>
+          <t>Error: Value '1821, 1825' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8220,7 +8220,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821, 1822' is longer than size '4'</t>
+          <t>Error: Value '1820, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8237,7 +8237,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>Error: Value '1821, 1825' is longer than size '4'</t>
+          <t>Error: Value '1820, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8254,7 +8254,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Error: Value '1821, 1825' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8271,7 +8271,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8288,7 +8288,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8373,7 +8373,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1826, 1828' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8390,7 +8390,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1826, 1828' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8407,7 +8407,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1821, 1828' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8424,7 +8424,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Error: Value '1826, 1828' is longer than size '4'</t>
+          <t>Error: Value '1821, 1828' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8441,7 +8441,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Error: Value '1826, 1828' is longer than size '4'</t>
+          <t>Error: Value '1826, 1830' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8458,7 +8458,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Error: Value '1821, 1828' is longer than size '4'</t>
+          <t>Error: Value '1826, 1830' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8475,7 +8475,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Error: Value '1821, 1828' is longer than size '4'</t>
+          <t>Error: Value '1819, 1825, 1839' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8492,7 +8492,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Error: Value '1826, 1830' is longer than size '4'</t>
+          <t>Error: Value '1819, 1825, 1839' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8509,7 +8509,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Error: Value '1826, 1830' is longer than size '4'</t>
+          <t>Error: Value '1819, 1825, 1839' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8526,7 +8526,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1825, 1839' is longer than size '4'</t>
+          <t>Error: Value '1820, 1822, 1825' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8543,7 +8543,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1825, 1839' is longer than size '4'</t>
+          <t>Error: Value '1820, 1822, 1825' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8560,7 +8560,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1825, 1839' is longer than size '4'</t>
+          <t>Error: Value '1820, 1821, 1822, 1826' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8577,7 +8577,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1822, 1825' is longer than size '4'</t>
+          <t>Error: Value '1820, 1821, 1822, 1826' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8594,7 +8594,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1822, 1825' is longer than size '4'</t>
+          <t>Error: Value '1820, 1821, 1822, 1826' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8611,7 +8611,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1821, 1822, 1826' is longer than size '4'</t>
+          <t>Error: Value '1826, 1828' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8628,7 +8628,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1821, 1822, 1826' is longer than size '4'</t>
+          <t>Error: Value '1826, 1828' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8645,7 +8645,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1821, 1822, 1826' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8662,7 +8662,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>Error: Value '1826, 1828' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8679,7 +8679,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>Error: Value '1826, 1828' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8696,7 +8696,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8730,7 +8730,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8747,7 +8747,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8764,7 +8764,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8781,7 +8781,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1820, 1821, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8798,7 +8798,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1820, 1821, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8815,7 +8815,7 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1820, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8832,7 +8832,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1821, 1822' is longer than size '4'</t>
+          <t>Error: Value '1820, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8849,7 +8849,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1821, 1822' is longer than size '4'</t>
+          <t>Error: Value '1820, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8883,7 +8883,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8900,7 +8900,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8917,7 +8917,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8934,7 +8934,7 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8951,7 +8951,7 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1824, 1829' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8968,7 +8968,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1824, 1829' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -8985,7 +8985,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -9002,7 +9002,7 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>Error: Value '1824, 1829' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -9019,7 +9019,7 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>Error: Value '1824, 1829' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -9036,7 +9036,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -9053,7 +9053,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1820, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -9070,7 +9070,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1820, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -9104,7 +9104,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -9138,7 +9138,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1820, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -9155,7 +9155,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -9172,7 +9172,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -9189,7 +9189,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -9240,7 +9240,7 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -9257,7 +9257,7 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -9274,7 +9274,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -9325,7 +9325,7 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1820, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -9342,7 +9342,7 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1820, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -9359,7 +9359,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1821, 1828' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -9376,7 +9376,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1822' is longer than size '4'</t>
+          <t>Error: Value '1821, 1828' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -9393,7 +9393,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -9410,7 +9410,7 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>Error: Value '1821, 1828' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -9427,7 +9427,7 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>Error: Value '1821, 1828' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -9444,7 +9444,7 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -9461,7 +9461,7 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1825' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -9478,7 +9478,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1825' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -9495,7 +9495,7 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1822, 1828' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -9512,7 +9512,7 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1825' is longer than size '4'</t>
+          <t>Error: Value '1822, 1828' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -9529,7 +9529,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1825' is longer than size '4'</t>
+          <t>Error: Value '1822, 1823' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -9546,7 +9546,7 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>Error: Value '1822, 1828' is longer than size '4'</t>
+          <t>Error: Value '1825, 1829' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -9563,7 +9563,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>Error: Value '1822, 1828' is longer than size '4'</t>
+          <t>Error: Value '1825, 1829' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -9580,7 +9580,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>Error: Value '1822, 1823' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -9597,7 +9597,7 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>Error: Value '1825, 1829' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -9614,7 +9614,7 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>Error: Value '1825, 1829' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -9631,7 +9631,7 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -9665,7 +9665,7 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -9682,7 +9682,7 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1820, 1822, 1839' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -9699,7 +9699,7 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1820, 1822, 1839' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -9716,7 +9716,7 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1820, 1822, 1839' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -9733,7 +9733,7 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1822, 1839' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -9750,7 +9750,7 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1822, 1839' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -9767,7 +9767,7 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1822, 1839' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -9784,7 +9784,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -9801,7 +9801,7 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -9903,7 +9903,7 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -9920,7 +9920,7 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -9954,7 +9954,7 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -9988,7 +9988,7 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10005,7 +10005,7 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10022,7 +10022,7 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1826, 1828' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10039,7 +10039,7 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1826, 1828' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10073,7 +10073,7 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>Error: Value '1826, 1828' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10090,7 +10090,7 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>Error: Value '1826, 1828' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10107,7 +10107,7 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10124,7 +10124,7 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10141,7 +10141,7 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10209,7 +10209,7 @@
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10226,7 +10226,7 @@
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10260,7 +10260,7 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10277,7 +10277,7 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10311,7 +10311,7 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10328,7 +10328,7 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10362,7 +10362,7 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10379,7 +10379,7 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1820, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10396,7 +10396,7 @@
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10430,7 +10430,7 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10447,7 +10447,7 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10515,7 +10515,7 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10532,7 +10532,7 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10549,7 +10549,7 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1824, 1829' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10566,7 +10566,7 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1824, 1829' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10583,7 +10583,7 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1826, 1830' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10600,7 +10600,7 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>Error: Value '1824, 1829' is longer than size '4'</t>
+          <t>Error: Value '1826, 1830' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10617,7 +10617,7 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>Error: Value '1824, 1829' is longer than size '4'</t>
+          <t>Error: Value '1820, 1831' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10634,7 +10634,7 @@
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>Error: Value '1826, 1830' is longer than size '4'</t>
+          <t>Error: Value '1819, 1825' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10651,7 +10651,7 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>Error: Value '1826, 1830' is longer than size '4'</t>
+          <t>Error: Value '1819, 1825' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10668,7 +10668,7 @@
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1831' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10685,7 +10685,7 @@
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1825' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10702,7 +10702,7 @@
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1825' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10719,7 +10719,7 @@
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10736,7 +10736,7 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10753,7 +10753,7 @@
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10770,7 +10770,7 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10787,7 +10787,7 @@
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1822' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10804,7 +10804,7 @@
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10821,7 +10821,7 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10838,7 +10838,7 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1822' is longer than size '4'</t>
+          <t>Error: Value '1820, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10855,7 +10855,7 @@
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1820, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10872,7 +10872,7 @@
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
+          <t>Error: Value '1819, 1827' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10889,7 +10889,7 @@
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1821' is longer than size '4'</t>
+          <t>Error: Value '1819, 1827' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10906,7 +10906,7 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1821' is longer than size '4'</t>
+          <t>Error: Value '1820, 1823' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10923,7 +10923,7 @@
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1827' is longer than size '4'</t>
+          <t>Error: Value '1820, 1823' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10940,7 +10940,7 @@
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1827' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10957,7 +10957,7 @@
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1823' is longer than size '4'</t>
+          <t>Error: Value '1819, 1821' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10974,7 +10974,7 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1823' is longer than size '4'</t>
+          <t>Error: Value '1824, 1829' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -10991,7 +10991,7 @@
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1824, 1829' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -11008,7 +11008,7 @@
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>Error: Value '1819, 1821' is longer than size '4'</t>
+          <t>Error: Value '1821, 1823' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -11025,7 +11025,7 @@
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>Error: Value '1824, 1829' is longer than size '4'</t>
+          <t>Error: Value '1820, 1822, 1828' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -11042,7 +11042,7 @@
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>Error: Value '1824, 1829' is longer than size '4'</t>
+          <t>Error: Value '1820, 1822, 1828' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -11059,7 +11059,7 @@
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>Error: Value '1821, 1823' is longer than size '4'</t>
+          <t>Error: Value '1824, 1829' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -11076,7 +11076,7 @@
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1822, 1828' is longer than size '4'</t>
+          <t>Error: Value '1824, 1829' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -11093,7 +11093,7 @@
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>Error: Value '1820, 1822, 1828' is longer than size '4'</t>
+          <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
       </c>
     </row>
@@ -11109,57 +11109,6 @@
         </is>
       </c>
       <c r="C633" t="inlineStr">
-        <is>
-          <t>Error: Value '1824, 1829' is longer than size '4'</t>
-        </is>
-      </c>
-    </row>
-    <row r="634">
-      <c r="A634" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
-      <c r="B634" t="inlineStr">
-        <is>
-          <t>Meta Compliance (field size)</t>
-        </is>
-      </c>
-      <c r="C634" t="inlineStr">
-        <is>
-          <t>Error: Value '1824, 1829' is longer than size '4'</t>
-        </is>
-      </c>
-    </row>
-    <row r="635">
-      <c r="A635" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
-      <c r="B635" t="inlineStr">
-        <is>
-          <t>Meta Compliance (field size)</t>
-        </is>
-      </c>
-      <c r="C635" t="inlineStr">
-        <is>
-          <t>Error: Value '1819, 1820' is longer than size '4'</t>
-        </is>
-      </c>
-    </row>
-    <row r="636">
-      <c r="A636" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
-      <c r="B636" t="inlineStr">
-        <is>
-          <t>Meta Compliance (field size)</t>
-        </is>
-      </c>
-      <c r="C636" t="inlineStr">
         <is>
           <t>Error: Value '1819, 1820' is longer than size '4'</t>
         </is>
